--- a/Пример решения ТЗ (протестировать  API).xlsx
+++ b/Пример решения ТЗ (протестировать  API).xlsx
@@ -1,12 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\QA-examples\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26083" windowHeight="10895"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="1. Протестировать функционал AP" sheetId="1" r:id="rId4"/>
+    <sheet name="1. Протестировать функционал AP" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -21,26 +29,26 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve">1.        </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
         <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t>Метод "CreateUser":</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve">
 Требуется протестировать метод "CreateUser" для создания нового пользователя. Для этого необходимо отправить POST-запрос на адрес http://host:80/CreateUser с параметром Name в формате JSON и получить ответ с id пользователя в формате строки. В случае успешного создания пользователя, сервер должен вернуть статус код 201 ОК.
@@ -51,18 +59,18 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
         <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t>Метод "GetUser":</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve">
 Требуется протестировать метод "GetUser" для получения информации о пользователе. Для этого необходимо отправить GET-запрос на адрес http://host:80/GetUser с параметром id в формате JSON и получить ответ с информацией о пользователе в формате JSON. В случае успешного получения информации о пользователе, сервер должен вернуть статус код 200 ОК.
@@ -73,18 +81,18 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
         <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t>Метод "SetUserAge":</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve">
 Требуется протестировать метод "SetUserAge" для установки возраста пользователя. Для этого необходимо отправить POST-запрос на адрес http://host:80/SetUserAge с параметрами id и Age в формате JSON и получить ответ с информацией об успешном выполнении операции. В случае успешного установления возраста пользователя, сервер должен вернуть статус код 200 ОК.
@@ -96,18 +104,18 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
         <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t>Метод "GetAgeGroupById":</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve">
 Требуется протестировать метод "GetAgeGroupById" для получения возрастной группы пользователя. Для этого необходимо отправить GET-запрос на адрес http://host:80/{id}/GetAgeGroupById с параметром id пользователя в формате строки и получить ответ с возрастной группой пользователя в формате строки. В случае успешного получения возрастной группы пользователя, сервер должен вернуть статус код 200 ОК.
@@ -118,18 +126,18 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
         <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t>Правило определения возрастной группы:</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve">
 В соответствии с правилом, пользователи могут быть разделены на две возрастные группы: "Young" (от 0 до 18 лет) и "Adult" (от 19 до 100 лет). При написании тестов необходимо убедиться, что пользователи, возраст которых находится в границах каждой группы, правильно определяются и возвращается соответствующая строка.
@@ -141,22 +149,28 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
@@ -166,7 +180,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -176,35 +190,48 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -394,34 +421,483 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="B1:N30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:N30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15.8" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="90.75" customHeight="1">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="2:14" ht="90.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+    </row>
+    <row r="2" spans="2:14" ht="12.9" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="2:14" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="2:14" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="2:14" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="2:14" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="2:14" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="2:14" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="2:14" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="2:14" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="2:14" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="2:14" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="2:14" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="2:14" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="2:14" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" spans="2:14" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="2:14" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="2:14" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="2:14" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="2:14" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="2:14" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+    </row>
+    <row r="28" spans="2:14" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:14" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+    </row>
+    <row r="30" spans="2:14" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:N1"/>
     <mergeCell ref="B2:N30"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>